--- a/Ford/ford_cnn_r1.xlsx
+++ b/Ford/ford_cnn_r1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691938E8-0DDE-5848-B57B-A95C2EA098BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8548CA59-D037-F445-AACB-D01EE4A1CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{205EEDFD-0081-844A-A58D-1319F07DF9C9}"/>
   </bookViews>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF60D2A7-585A-C04E-BF41-98E968B2F36C}">
   <dimension ref="B3:AA561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="118" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="118" workbookViewId="0">
+      <selection activeCell="J190" sqref="J190:J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/Ford/ford_cnn_r1.xlsx
+++ b/Ford/ford_cnn_r1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park/play/smart_factory_2/Ford/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8548CA59-D037-F445-AACB-D01EE4A1CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61243165-C2B3-D049-8F49-68B3BCF2AF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="500" windowWidth="21600" windowHeight="37900" xr2:uid="{205EEDFD-0081-844A-A58D-1319F07DF9C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="160">
   <si>
     <t>정수형</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -642,14 +642,6 @@
   </si>
   <si>
     <t>val=0.05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒷부분이 변별력이 있는 데이터로 보여서 val 비율을 축소시켜봄</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>val=0.1 인자는 트레인데이터셋에서 후반부에 검증데이터를 추출함</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1341,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF60D2A7-585A-C04E-BF41-98E968B2F36C}">
   <dimension ref="B3:AA561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="118" workbookViewId="0">
-      <selection activeCell="J190" sqref="J190:J195"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="118" workbookViewId="0">
+      <selection activeCell="K190" sqref="K190:K195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6956,7 +6948,7 @@
       <c r="T168" s="4"/>
       <c r="U168" s="4"/>
       <c r="V168" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="2:22" ht="18" customHeight="1">
@@ -6991,7 +6983,7 @@
         <v>20</v>
       </c>
       <c r="V169" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="2:22" ht="18" customHeight="1">
@@ -7024,7 +7016,7 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="2:22" ht="18" customHeight="1">
@@ -7440,10 +7432,10 @@
       <c r="N183" s="31"/>
       <c r="O183" s="4"/>
       <c r="P183" s="45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q183" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R183" s="48"/>
       <c r="S183" s="48"/>
@@ -7645,7 +7637,7 @@
         <v>148</v>
       </c>
       <c r="Q189" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R189" s="48"/>
       <c r="S189" s="48"/>
@@ -7735,9 +7727,6 @@
       </c>
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
-      <c r="U191" s="3" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="192" spans="2:21" ht="18" customHeight="1">
       <c r="B192" s="31"/>
@@ -7765,9 +7754,6 @@
       </c>
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
-      <c r="U192" s="3" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="193" spans="2:21" ht="18" customHeight="1">
       <c r="B193" s="31"/>
@@ -7933,7 +7919,7 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
       <c r="U197" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="198" spans="2:21" ht="18" customHeight="1">
@@ -7963,7 +7949,7 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
       <c r="U198" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="199" spans="2:21" ht="18" customHeight="1">
@@ -8229,10 +8215,10 @@
       <c r="N207" s="31"/>
       <c r="O207" s="4"/>
       <c r="P207" s="45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q207" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R207" s="48"/>
       <c r="S207" s="4"/>
@@ -8253,7 +8239,7 @@
         <v>0.96960000000000002</v>
       </c>
       <c r="F208" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G208" s="31" t="s">
         <v>1</v>
@@ -8422,10 +8408,10 @@
       <c r="N213" s="31"/>
       <c r="O213" s="4"/>
       <c r="P213" s="45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q213" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R213" s="48"/>
       <c r="S213" s="4"/>
@@ -8615,10 +8601,10 @@
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
       <c r="P219" s="45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q219" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R219" s="48"/>
       <c r="S219" s="4"/>
@@ -8708,7 +8694,7 @@
       <c r="S221" s="4"/>
       <c r="T221" s="4"/>
       <c r="U221" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="2:21" ht="18" customHeight="1">
@@ -8738,7 +8724,7 @@
       <c r="S222" s="4"/>
       <c r="T222" s="4"/>
       <c r="U222" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="2:21" ht="18" customHeight="1">
@@ -8816,7 +8802,7 @@
         <v>148</v>
       </c>
       <c r="Q225" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R225" s="48"/>
       <c r="S225" s="4"/>
